--- a/IMKL2.x/4. waardelijsten/IMKL-Waardelijsten-changelog.xlsx
+++ b/IMKL2.x/4. waardelijsten/IMKL-Waardelijsten-changelog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjanssen\Documents\GitHub\imkl2015-review\IMKL2.x\4. waardelijsten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DE373B-4452-4F9C-B624-285F26B4983D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA72729-DD39-4AD5-A9F4-C2F1CC0A0BD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{894B1FF5-8DFC-4651-A7C4-67B2EE5B0E46}"/>
+    <workbookView xWindow="4515" yWindow="1845" windowWidth="14400" windowHeight="10755" xr2:uid="{894B1FF5-8DFC-4651-A7C4-67B2EE5B0E46}"/>
   </bookViews>
   <sheets>
     <sheet name="Changelog" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>Datum</t>
   </si>
@@ -148,6 +148,30 @@
   </si>
   <si>
     <t>SewerWaterTypeValue</t>
+  </si>
+  <si>
+    <t>naam: BGT raster -&gt; BGT rasterkaart</t>
+  </si>
+  <si>
+    <t>naam:  in- en uittredepunt boringen</t>
+  </si>
+  <si>
+    <t>ThermalAppurtenanceTypeIMKLValue</t>
+  </si>
+  <si>
+    <t>NauwkeurigheidDiepteValue</t>
+  </si>
+  <si>
+    <t>definitie: Nauwkeurigheidsgraad tot op 50 cm.</t>
+  </si>
+  <si>
+    <t>er stonden twee definities</t>
+  </si>
+  <si>
+    <t>Tabblad symboolAppurtenance</t>
+  </si>
+  <si>
+    <t>inhoud in tabbald waarden verwerkt</t>
   </si>
 </sst>
 </file>
@@ -603,7 +627,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A17:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -850,37 +874,65 @@
       <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="A16" s="18">
+        <v>20200916</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="D16" s="6"/>
       <c r="E16" s="10"/>
       <c r="F16" s="5"/>
       <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+      <c r="A17" s="18">
+        <v>20200916</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="D17" s="6"/>
       <c r="E17" s="10"/>
       <c r="F17" s="5"/>
       <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="18">
+        <v>20200916</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="E18" s="10"/>
       <c r="F18" s="6"/>
       <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="18">
+        <v>20200916</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="E19" s="10"/>
       <c r="F19" s="6"/>
       <c r="J19" s="11"/>
@@ -2308,6 +2360,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003ADD3040E3157B4E913BCA65F34844D7" ma:contentTypeVersion="10" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="c1765059aa1475931adc12138fdcfd8c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aafb19fa-82be-411d-a6df-c75e9235a4ea" xmlns:ns3="3dfebdfe-2b22-40ba-8672-9fbc9b4066c4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="42d79c55539af1f9f274032ce6041302" ns2:_="" ns3:_="">
     <xsd:import namespace="aafb19fa-82be-411d-a6df-c75e9235a4ea"/>
@@ -2510,15 +2571,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB1489CD-B12A-4704-A7E2-006D773FFFBF}">
   <ds:schemaRefs>
@@ -2529,6 +2581,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7893A73B-81F0-482A-B793-D93E5F8DCA71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0C9FDDB-2830-4DD6-A847-D844746B12F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2545,12 +2605,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7893A73B-81F0-482A-B793-D93E5F8DCA71}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/IMKL2.x/4. waardelijsten/IMKL-Waardelijsten-changelog.xlsx
+++ b/IMKL2.x/4. waardelijsten/IMKL-Waardelijsten-changelog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjanssen\Documents\GitHub\imkl2015-review\IMKL2.x\4. waardelijsten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA72729-DD39-4AD5-A9F4-C2F1CC0A0BD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAD5C80-4E53-4989-9352-B52A214BB6B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4515" yWindow="1845" windowWidth="14400" windowHeight="10755" xr2:uid="{894B1FF5-8DFC-4651-A7C4-67B2EE5B0E46}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{894B1FF5-8DFC-4651-A7C4-67B2EE5B0E46}"/>
   </bookViews>
   <sheets>
     <sheet name="Changelog" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
   <si>
     <t>Datum</t>
   </si>
@@ -172,6 +172,12 @@
   </si>
   <si>
     <t>inhoud in tabbald waarden verwerkt</t>
+  </si>
+  <si>
+    <t>SewerAppurtenanceTypeValue</t>
+  </si>
+  <si>
+    <t>inspectieput</t>
   </si>
 </sst>
 </file>
@@ -627,7 +633,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A17:A19"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -939,9 +945,15 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="B20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="E20" s="10"/>
       <c r="F20" s="5"/>
       <c r="J20" s="12"/>
@@ -2354,18 +2366,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2572,18 +2584,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB1489CD-B12A-4704-A7E2-006D773FFFBF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7893A73B-81F0-482A-B793-D93E5F8DCA71}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7893A73B-81F0-482A-B793-D93E5F8DCA71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB1489CD-B12A-4704-A7E2-006D773FFFBF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/IMKL2.x/4. waardelijsten/IMKL-Waardelijsten-changelog.xlsx
+++ b/IMKL2.x/4. waardelijsten/IMKL-Waardelijsten-changelog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjanssen\Documents\GitHub\imkl2015-review\IMKL2.x\4. waardelijsten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAD5C80-4E53-4989-9352-B52A214BB6B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DEBE89-DE72-4A24-AC1B-D55DC9CB6DCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{894B1FF5-8DFC-4651-A7C4-67B2EE5B0E46}"/>
+    <workbookView xWindow="-19320" yWindow="-7680" windowWidth="19440" windowHeight="15000" xr2:uid="{894B1FF5-8DFC-4651-A7C4-67B2EE5B0E46}"/>
   </bookViews>
   <sheets>
     <sheet name="Changelog" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t>Datum</t>
   </si>
@@ -178,6 +178,12 @@
   </si>
   <si>
     <t>inspectieput</t>
+  </si>
+  <si>
+    <t>LandcodeValue</t>
+  </si>
+  <si>
+    <t>Toegevoegd</t>
   </si>
 </sst>
 </file>
@@ -233,7 +239,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -243,6 +249,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,7 +273,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -312,6 +324,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -633,7 +654,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -880,90 +901,98 @@
       <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="18">
+      <c r="A16" s="19">
         <v>20200916</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="10"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
       <c r="F16" s="5"/>
       <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="18">
+      <c r="A17" s="19">
         <v>20200916</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="10"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
       <c r="F17" s="5"/>
       <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="18">
+      <c r="A18" s="19">
         <v>20200916</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="10"/>
+      <c r="E18" s="21"/>
       <c r="F18" s="6"/>
       <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="18">
+      <c r="A19" s="19">
         <v>20200916</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="10"/>
+      <c r="E19" s="21"/>
       <c r="F19" s="6"/>
       <c r="J19" s="11"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="19">
+        <v>20200916</v>
+      </c>
+      <c r="B20" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="10"/>
+      <c r="E20" s="21"/>
       <c r="F20" s="5"/>
       <c r="J20" s="12"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="10"/>
+      <c r="A21" s="19">
+        <v>20200923</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="21"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -2375,12 +2404,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003ADD3040E3157B4E913BCA65F34844D7" ma:contentTypeVersion="10" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="c1765059aa1475931adc12138fdcfd8c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aafb19fa-82be-411d-a6df-c75e9235a4ea" xmlns:ns3="3dfebdfe-2b22-40ba-8672-9fbc9b4066c4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="42d79c55539af1f9f274032ce6041302" ns2:_="" ns3:_="">
     <xsd:import namespace="aafb19fa-82be-411d-a6df-c75e9235a4ea"/>
@@ -2583,6 +2606,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7893A73B-81F0-482A-B793-D93E5F8DCA71}">
   <ds:schemaRefs>
@@ -2592,15 +2621,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB1489CD-B12A-4704-A7E2-006D773FFFBF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0C9FDDB-2830-4DD6-A847-D844746B12F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2617,4 +2637,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB1489CD-B12A-4704-A7E2-006D773FFFBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>